--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>C1qa</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>C1qa</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H2">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I2">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J2">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N2">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O2">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P2">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q2">
-        <v>19.776530046588</v>
+        <v>0.3574816676217777</v>
       </c>
       <c r="R2">
-        <v>177.988770419292</v>
+        <v>3.217335008596</v>
       </c>
       <c r="S2">
-        <v>0.003000221890962616</v>
+        <v>6.303317398019217E-05</v>
       </c>
       <c r="T2">
-        <v>0.003000221890962616</v>
+        <v>6.303317398019218E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H3">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I3">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J3">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.064568</v>
       </c>
       <c r="O3">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P3">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q3">
-        <v>43.353338325984</v>
+        <v>1.202585362890667</v>
       </c>
       <c r="R3">
-        <v>390.180044933856</v>
+        <v>10.823268266016</v>
       </c>
       <c r="S3">
-        <v>0.00657696948784837</v>
+        <v>0.0002120466006254639</v>
       </c>
       <c r="T3">
-        <v>0.00657696948784837</v>
+        <v>0.0002120466006254639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H4">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I4">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J4">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N4">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O4">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P4">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q4">
-        <v>75.12571201479601</v>
+        <v>1.475733054238667</v>
       </c>
       <c r="R4">
-        <v>676.131408133164</v>
+        <v>13.281597488148</v>
       </c>
       <c r="S4">
-        <v>0.01139703503243386</v>
+        <v>0.0002602095345895143</v>
       </c>
       <c r="T4">
-        <v>0.01139703503243386</v>
+        <v>0.0002602095345895144</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.186764</v>
+        <v>0.1161373333333333</v>
       </c>
       <c r="H5">
-        <v>12.560292</v>
+        <v>0.348412</v>
       </c>
       <c r="I5">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="J5">
-        <v>0.02138564110481286</v>
+        <v>0.0005423317774654872</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N5">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O5">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P5">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q5">
-        <v>2.711917766304</v>
+        <v>0.03994013219511111</v>
       </c>
       <c r="R5">
-        <v>24.407259896736</v>
+        <v>0.3594611897560001</v>
       </c>
       <c r="S5">
-        <v>0.0004114146935680179</v>
+        <v>7.042468270316821E-06</v>
       </c>
       <c r="T5">
-        <v>0.0004114146935680179</v>
+        <v>7.042468270316821E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H6">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I6">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J6">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N6">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O6">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P6">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q6">
-        <v>904.9808784248967</v>
+        <v>658.7992974029667</v>
       </c>
       <c r="R6">
-        <v>8144.827905824071</v>
+        <v>5929.1936766267</v>
       </c>
       <c r="S6">
-        <v>0.1372911949647805</v>
+        <v>0.1161631895909277</v>
       </c>
       <c r="T6">
-        <v>0.1372911949647805</v>
+        <v>0.1161631895909277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H7">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I7">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J7">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.064568</v>
       </c>
       <c r="O7">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P7">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q7">
-        <v>1983.863807678925</v>
+        <v>2216.232226424801</v>
       </c>
       <c r="R7">
-        <v>17854.77426911033</v>
+        <v>19946.0900378232</v>
       </c>
       <c r="S7">
-        <v>0.3009644063172575</v>
+        <v>0.3907785046380175</v>
       </c>
       <c r="T7">
-        <v>0.3009644063172575</v>
+        <v>0.3907785046380175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H8">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I8">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J8">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N8">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O8">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P8">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q8">
-        <v>3437.778654358812</v>
+        <v>2719.6133042419</v>
       </c>
       <c r="R8">
-        <v>30940.00788922931</v>
+        <v>24476.5197381771</v>
       </c>
       <c r="S8">
-        <v>0.521532278453003</v>
+        <v>0.4795374814758243</v>
       </c>
       <c r="T8">
-        <v>0.521532278453003</v>
+        <v>0.4795374814758243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>191.5877736666667</v>
+        <v>214.0283</v>
       </c>
       <c r="H9">
-        <v>574.763321</v>
+        <v>642.0849000000001</v>
       </c>
       <c r="I9">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="J9">
-        <v>0.9786143588951871</v>
+        <v>0.9994576682225345</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N9">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O9">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P9">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q9">
-        <v>124.098298163752</v>
+        <v>73.60525982596668</v>
       </c>
       <c r="R9">
-        <v>1116.884683473768</v>
+        <v>662.4473384337001</v>
       </c>
       <c r="S9">
-        <v>0.01882647916014622</v>
+        <v>0.01297849251776503</v>
       </c>
       <c r="T9">
-        <v>0.01882647916014622</v>
+        <v>0.01297849251776503</v>
       </c>
     </row>
   </sheetData>
